--- a/data/trans_orig/P43D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>212781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191458</v>
+        <v>191173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>236552</v>
+        <v>235225</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4112855835625208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3700694157904013</v>
+        <v>0.3695184422044124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4572316993268534</v>
+        <v>0.4546662329099556</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>141675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>123134</v>
+        <v>121801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163232</v>
+        <v>164839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2738443020643714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2380061204248711</v>
+        <v>0.2354284235829801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3155119943203302</v>
+        <v>0.3186183142614051</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>109232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91636</v>
+        <v>89887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126490</v>
+        <v>127544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2111345779419733</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1771233595843651</v>
+        <v>0.1737433109951062</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2444929844376061</v>
+        <v>0.2465290535121798</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>53668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40230</v>
+        <v>42215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68056</v>
+        <v>70401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1037355364311346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07776087018439477</v>
+        <v>0.08159750057096006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1315448912059911</v>
+        <v>0.1360774948758945</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>168930</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>146090</v>
+        <v>143880</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>191675</v>
+        <v>193135</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1802146395067525</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1558486183517484</v>
+        <v>0.1534907386961974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2044788324044839</v>
+        <v>0.2060360318203224</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>312377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>285222</v>
+        <v>282494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>340445</v>
+        <v>338141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3332434274755839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3042752587333365</v>
+        <v>0.301364929283494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3631868542693162</v>
+        <v>0.3607287070063911</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>263636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239468</v>
+        <v>239075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>293339</v>
+        <v>293894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.281247135001189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2554638986554565</v>
+        <v>0.2550451129508566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3129345096191748</v>
+        <v>0.3135256719078475</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>192440</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168677</v>
+        <v>167165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>219290</v>
+        <v>215723</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2052947980164745</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1799450078255391</v>
+        <v>0.1783315028613543</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2339384508906158</v>
+        <v>0.230133662280892</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>39828</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29110</v>
+        <v>29395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52579</v>
+        <v>53259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1227861076153569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0897433294550212</v>
+        <v>0.09062336956643645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1620967508261278</v>
+        <v>0.1641917659183766</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>100002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83809</v>
+        <v>83296</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118363</v>
+        <v>116875</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3082960175823607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2583755192978049</v>
+        <v>0.2567927126798006</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3649028707746754</v>
+        <v>0.3603149691668576</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>98812</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81507</v>
+        <v>82274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115826</v>
+        <v>116084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3046281832027911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2512781462780941</v>
+        <v>0.2536442609351413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3570798566334583</v>
+        <v>0.3578769271762554</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>85727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70293</v>
+        <v>70818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101643</v>
+        <v>100802</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2642896915994913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2167059879576961</v>
+        <v>0.2183258489683979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3133564827235854</v>
+        <v>0.3107627382886726</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>421540</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>385495</v>
+        <v>386350</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>457917</v>
+        <v>459724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2369385911157015</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2166787100121388</v>
+        <v>0.2171595389119526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2573853971836931</v>
+        <v>0.2584010304659555</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>554054</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>515162</v>
+        <v>512638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>591369</v>
+        <v>593794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3114219939752454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2895619651179152</v>
+        <v>0.2881429094966899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3323963876632391</v>
+        <v>0.3337591503472575</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>471680</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>438420</v>
+        <v>434717</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>512528</v>
+        <v>508739</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2651215787801384</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2464266305844757</v>
+        <v>0.2443452863253578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2880812473869181</v>
+        <v>0.285951616626042</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>331836</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>299937</v>
+        <v>301357</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>364391</v>
+        <v>366339</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1865178361289147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1685883874098451</v>
+        <v>0.1693864688288932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2048163756879579</v>
+        <v>0.2059117492295763</v>
       </c>
     </row>
     <row r="23">
@@ -1337,19 +1337,19 @@
         <v>214229</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191762</v>
+        <v>190663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>240496</v>
+        <v>242616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.304510088388926</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2725754541425303</v>
+        <v>0.271013257595236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3418473557362382</v>
+        <v>0.3448598410520548</v>
       </c>
     </row>
     <row r="5">
@@ -1366,19 +1366,19 @@
         <v>231254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205761</v>
+        <v>203936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257381</v>
+        <v>256097</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3287094156886266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.292473736720826</v>
+        <v>0.2898799892462025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3658471061292489</v>
+        <v>0.3640224315443222</v>
       </c>
     </row>
     <row r="6">
@@ -1395,19 +1395,19 @@
         <v>153064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132789</v>
+        <v>133778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175655</v>
+        <v>178087</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2175686945314381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1887490291566724</v>
+        <v>0.1901546012180853</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2496808343505538</v>
+        <v>0.2531372323589869</v>
       </c>
     </row>
     <row r="7">
@@ -1424,19 +1424,19 @@
         <v>104973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86042</v>
+        <v>86709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124949</v>
+        <v>125603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1492118013910093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1223016149862204</v>
+        <v>0.1232498942062465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1776051919142209</v>
+        <v>0.1785350885980431</v>
       </c>
     </row>
     <row r="8">
@@ -1486,19 +1486,19 @@
         <v>195840</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>171842</v>
+        <v>169946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>224240</v>
+        <v>222731</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1583814908989671</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1389737444033541</v>
+        <v>0.1374402209381094</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1813495857952395</v>
+        <v>0.1801285656075868</v>
       </c>
     </row>
     <row r="10">
@@ -1515,19 +1515,19 @@
         <v>451375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>417953</v>
+        <v>418689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>486184</v>
+        <v>487999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3650395797626635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3380105452509703</v>
+        <v>0.3386060795014761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3931911801410635</v>
+        <v>0.3946587381738988</v>
       </c>
     </row>
     <row r="11">
@@ -1544,19 +1544,19 @@
         <v>355702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322272</v>
+        <v>326636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>391735</v>
+        <v>388862</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2876663937868574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2606304688476819</v>
+        <v>0.2641597292765095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3168073520496139</v>
+        <v>0.3144838744914763</v>
       </c>
     </row>
     <row r="12">
@@ -1573,19 +1573,19 @@
         <v>233592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>206529</v>
+        <v>204471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>265154</v>
+        <v>259726</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1889125355515119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.167025754496106</v>
+        <v>0.1653612877169042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2144379081190553</v>
+        <v>0.2100480089520418</v>
       </c>
     </row>
     <row r="13">
@@ -1635,19 +1635,19 @@
         <v>35164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23763</v>
+        <v>24346</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48554</v>
+        <v>49225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1013579760308955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0684962033408347</v>
+        <v>0.07017538973349625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1399550357432821</v>
+        <v>0.1418912565668445</v>
       </c>
     </row>
     <row r="15">
@@ -1664,19 +1664,19 @@
         <v>107721</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88223</v>
+        <v>90012</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>126770</v>
+        <v>126392</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3105029481459773</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2543018264465834</v>
+        <v>0.2594574380462343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3654108328835502</v>
+        <v>0.3643231606284157</v>
       </c>
     </row>
     <row r="16">
@@ -1693,19 +1693,19 @@
         <v>128049</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108822</v>
+        <v>109426</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148217</v>
+        <v>148299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3690980796412854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3136761086881131</v>
+        <v>0.31541688415206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4272314211482488</v>
+        <v>0.4274688874412315</v>
       </c>
     </row>
     <row r="17">
@@ -1722,19 +1722,19 @@
         <v>75991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61368</v>
+        <v>61052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93766</v>
+        <v>93390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2190409961818418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1768921959994061</v>
+        <v>0.1759816382228079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2702774411424435</v>
+        <v>0.2691933751118649</v>
       </c>
     </row>
     <row r="18">
@@ -1784,19 +1784,19 @@
         <v>445233</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>408830</v>
+        <v>408951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>486929</v>
+        <v>485550</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1946837394114846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1787663004175082</v>
+        <v>0.1788190247112894</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2129161787851996</v>
+        <v>0.2123131434254178</v>
       </c>
     </row>
     <row r="20">
@@ -1813,19 +1813,19 @@
         <v>790349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>737562</v>
+        <v>744444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>836268</v>
+        <v>837243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3455905313320011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.322508632831548</v>
+        <v>0.3255178043559812</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3656691182204124</v>
+        <v>0.3660953222211576</v>
       </c>
     </row>
     <row r="21">
@@ -1842,19 +1842,19 @@
         <v>636815</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>591401</v>
+        <v>592536</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>682081</v>
+        <v>677783</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2784556620209507</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2585978156813046</v>
+        <v>0.25909404087707</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2982487764784791</v>
+        <v>0.2963696419920276</v>
       </c>
     </row>
     <row r="22">
@@ -1871,19 +1871,19 @@
         <v>414556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>374101</v>
+        <v>372763</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>451044</v>
+        <v>451795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1812700672355637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1635804836953081</v>
+        <v>0.1629954001801749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1972248131401054</v>
+        <v>0.1975532725257455</v>
       </c>
     </row>
     <row r="23">
@@ -2050,19 +2050,19 @@
         <v>228359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>203342</v>
+        <v>205856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250878</v>
+        <v>254049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4543744477908019</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4045970239936983</v>
+        <v>0.4095986529289516</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4991810163691299</v>
+        <v>0.5054908523768837</v>
       </c>
     </row>
     <row r="5">
@@ -2079,19 +2079,19 @@
         <v>165352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144752</v>
+        <v>142980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187675</v>
+        <v>188115</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.32900638624689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2880174873718838</v>
+        <v>0.2844935664031573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3734248493579527</v>
+        <v>0.3742986070675969</v>
       </c>
     </row>
     <row r="6">
@@ -2108,19 +2108,19 @@
         <v>73567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58963</v>
+        <v>58824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90177</v>
+        <v>90866</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1463789174850085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1173205017624582</v>
+        <v>0.1170446612622355</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1794281479062062</v>
+        <v>0.1807986550146825</v>
       </c>
     </row>
     <row r="7">
@@ -2137,19 +2137,19 @@
         <v>35301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25100</v>
+        <v>25601</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48492</v>
+        <v>49131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07024024847729955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04994224817273624</v>
+        <v>0.05093912081379301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09648682498066345</v>
+        <v>0.09775865675015195</v>
       </c>
     </row>
     <row r="8">
@@ -2199,19 +2199,19 @@
         <v>262853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>237585</v>
+        <v>231570</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>293630</v>
+        <v>290691</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2017224794317689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.182330745704951</v>
+        <v>0.1777147841416735</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2253416494542882</v>
+        <v>0.2230867460733237</v>
       </c>
     </row>
     <row r="10">
@@ -2228,19 +2228,19 @@
         <v>581536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>546843</v>
+        <v>542806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>620013</v>
+        <v>615470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4462912940401195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4196662697121156</v>
+        <v>0.4165686789618244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4758194777545662</v>
+        <v>0.4723335396714478</v>
       </c>
     </row>
     <row r="11">
@@ -2257,19 +2257,19 @@
         <v>284949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253751</v>
+        <v>257991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313695</v>
+        <v>317372</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2186796728258786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1947377307078968</v>
+        <v>0.1979911336109995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2407406214950759</v>
+        <v>0.2435623602352944</v>
       </c>
     </row>
     <row r="12">
@@ -2286,19 +2286,19 @@
         <v>173704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148066</v>
+        <v>149988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>197626</v>
+        <v>201344</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.133306553702233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1136306888178472</v>
+        <v>0.1151063458189414</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1516647286161227</v>
+        <v>0.1545186401096224</v>
       </c>
     </row>
     <row r="13">
@@ -2348,19 +2348,19 @@
         <v>39715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28347</v>
+        <v>28544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53227</v>
+        <v>53211</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09364852771984447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06684110877138903</v>
+        <v>0.06730736492386298</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1255089710991244</v>
+        <v>0.1254719607040113</v>
       </c>
     </row>
     <row r="15">
@@ -2377,19 +2377,19 @@
         <v>177967</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>157427</v>
+        <v>159533</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>199330</v>
+        <v>198542</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4196445678760832</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3712110238222174</v>
+        <v>0.3761779866536591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4700194532440002</v>
+        <v>0.4681606365256342</v>
       </c>
     </row>
     <row r="16">
@@ -2406,19 +2406,19 @@
         <v>133771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115737</v>
+        <v>116770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154853</v>
+        <v>154232</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3154302650824861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2729082469819784</v>
+        <v>0.2753438880013974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3651438609874375</v>
+        <v>0.3636782040593499</v>
       </c>
     </row>
     <row r="17">
@@ -2435,19 +2435,19 @@
         <v>72637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57209</v>
+        <v>57988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88535</v>
+        <v>92305</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1712766393215862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1348989457635353</v>
+        <v>0.136736593187453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2087646228530513</v>
+        <v>0.2176536116760851</v>
       </c>
     </row>
     <row r="18">
@@ -2497,19 +2497,19 @@
         <v>530927</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>490738</v>
+        <v>490305</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>573961</v>
+        <v>575836</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2381149463229043</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2200903842639416</v>
+        <v>0.2198963518093849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2574152711744531</v>
+        <v>0.2582560904491206</v>
       </c>
     </row>
     <row r="20">
@@ -2526,19 +2526,19 @@
         <v>924854</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>877889</v>
+        <v>884735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>971352</v>
+        <v>977386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4147869640888473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.393723416074154</v>
+        <v>0.3967940486338743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4356408192111804</v>
+        <v>0.4383466672359819</v>
       </c>
     </row>
     <row r="21">
@@ -2555,19 +2555,19 @@
         <v>492286</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>455801</v>
+        <v>452202</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>532688</v>
+        <v>531483</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2207848755877904</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2044217452864258</v>
+        <v>0.2028074311494022</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2389046797298146</v>
+        <v>0.2383644854861664</v>
       </c>
     </row>
     <row r="22">
@@ -2584,19 +2584,19 @@
         <v>281642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>249313</v>
+        <v>252154</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316306</v>
+        <v>315058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.126313214000458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1118141616336307</v>
+        <v>0.113088507520757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1418599774714361</v>
+        <v>0.1413000914832423</v>
       </c>
     </row>
     <row r="23">
@@ -2763,19 +2763,19 @@
         <v>175399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162297</v>
+        <v>161371</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188209</v>
+        <v>187419</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5812598572433811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5378413082473745</v>
+        <v>0.5347733465765261</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6237135656123847</v>
+        <v>0.6210935122368599</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>75492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64388</v>
+        <v>64476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88044</v>
+        <v>87179</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2501766628502551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2133767379644915</v>
+        <v>0.2136697315778149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2917724526030326</v>
+        <v>0.2889058427689795</v>
       </c>
     </row>
     <row r="6">
@@ -2821,19 +2821,19 @@
         <v>34237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26357</v>
+        <v>26566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44106</v>
+        <v>43385</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1134593949031583</v>
+        <v>0.1134593949031582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08734401604395541</v>
+        <v>0.08803668382582219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.146164207439666</v>
+        <v>0.1437759350547357</v>
       </c>
     </row>
     <row r="7">
@@ -2850,19 +2850,19 @@
         <v>16628</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11294</v>
+        <v>11283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22950</v>
+        <v>23319</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05510408500320553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03742852580092869</v>
+        <v>0.03739253855098473</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07605445934064617</v>
+        <v>0.07727723104344045</v>
       </c>
     </row>
     <row r="8">
@@ -2912,19 +2912,19 @@
         <v>235550</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>214781</v>
+        <v>214279</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>257702</v>
+        <v>256642</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2578422474053459</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2351082829539199</v>
+        <v>0.2345583129750485</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2820908418384881</v>
+        <v>0.280930537216531</v>
       </c>
     </row>
     <row r="10">
@@ -2941,19 +2941,19 @@
         <v>332559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>307408</v>
+        <v>307882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>357898</v>
+        <v>356462</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3640326916705202</v>
+        <v>0.3640326916705201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3365010983349018</v>
+        <v>0.3370195369929906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3917694442021178</v>
+        <v>0.3901979271050484</v>
       </c>
     </row>
     <row r="11">
@@ -2970,19 +2970,19 @@
         <v>208295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>186604</v>
+        <v>184127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>232048</v>
+        <v>230307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2280076253996362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2042647218947763</v>
+        <v>0.2015533470914228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2540086457263894</v>
+        <v>0.2521032682390319</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>137139</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118957</v>
+        <v>119376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156263</v>
+        <v>156827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1501174355244977</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1302153380783073</v>
+        <v>0.1306735416007519</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1710523164984952</v>
+        <v>0.1716686360230328</v>
       </c>
     </row>
     <row r="13">
@@ -3061,19 +3061,19 @@
         <v>65748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53666</v>
+        <v>54530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79384</v>
+        <v>79490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1706287067341389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1392745076251334</v>
+        <v>0.1415174994522391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2060189933535884</v>
+        <v>0.2062921661568649</v>
       </c>
     </row>
     <row r="15">
@@ -3090,19 +3090,19 @@
         <v>136659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121983</v>
+        <v>120167</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>154660</v>
+        <v>153775</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3546569540399126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3165708999761286</v>
+        <v>0.3118568703076655</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.401374176370339</v>
+        <v>0.3990776188669911</v>
       </c>
     </row>
     <row r="16">
@@ -3119,19 +3119,19 @@
         <v>106908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91308</v>
+        <v>92493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121984</v>
+        <v>123063</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2774488715968536</v>
+        <v>0.2774488715968535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2369623763109693</v>
+        <v>0.2400385528763512</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3165734331227004</v>
+        <v>0.3193743789864846</v>
       </c>
     </row>
     <row r="17">
@@ -3148,19 +3148,19 @@
         <v>76012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62353</v>
+        <v>62226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91867</v>
+        <v>91330</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1972654676290949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1618175724143068</v>
+        <v>0.161490315385177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2384135013734183</v>
+        <v>0.2370201037692794</v>
       </c>
     </row>
     <row r="18">
@@ -3210,19 +3210,19 @@
         <v>476696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>446280</v>
+        <v>448650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>510059</v>
+        <v>510164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2978188027259546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2788164517004865</v>
+        <v>0.2802970766915255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3186626814914122</v>
+        <v>0.3187284801375573</v>
       </c>
     </row>
     <row r="20">
@@ -3239,19 +3239,19 @@
         <v>544710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>515086</v>
+        <v>512125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>576692</v>
+        <v>576967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3403110616243096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3218031511665828</v>
+        <v>0.3199535579621323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3602917073940169</v>
+        <v>0.360463648259766</v>
       </c>
     </row>
     <row r="21">
@@ -3268,19 +3268,19 @@
         <v>349440</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>321948</v>
+        <v>323025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>379027</v>
+        <v>379870</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2183147968215303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.201138749316266</v>
+        <v>0.2018121944696428</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2367993244814321</v>
+        <v>0.2373262223895196</v>
       </c>
     </row>
     <row r="22">
@@ -3297,19 +3297,19 @@
         <v>229778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>207427</v>
+        <v>205186</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>255797</v>
+        <v>254856</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1435553388282055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1295915918448914</v>
+        <v>0.1281912445864342</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1598104897221038</v>
+        <v>0.1592231418427489</v>
       </c>
     </row>
     <row r="23">
